--- a/Code lines.xlsx
+++ b/Code lines.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeClub\BAFTA-YGD-CompetitionGame\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Conf</t>
   </si>
@@ -58,12 +63,15 @@
   </si>
   <si>
     <t>Sounds</t>
+  </si>
+  <si>
+    <t>player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,6 +122,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -161,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +205,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,6 +257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,7 +453,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -474,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +551,21 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>226</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>SUM(B2:B12)</f>
-        <v>1317</v>
+        <f>SUM(B2:B13)</f>
+        <v>1873</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
